--- a/sens_Banana yield/case_19.xlsx
+++ b/sens_Banana yield/case_19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\sens_Banana yield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\sens_Banana yield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04AC782-02CB-4A81-BFB5-08F68EFEF944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9EBB37-361E-4C62-82C8-07F53D08E9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -847,7 +846,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0;\-;\-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">

--- a/sens_Banana yield/case_19.xlsx
+++ b/sens_Banana yield/case_19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\sens_Banana yield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\sens_Banana yield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9EBB37-361E-4C62-82C8-07F53D08E9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4A7CC6-D2FE-4217-A90E-04AF323E0071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="267">
   <si>
     <t>row</t>
   </si>
@@ -728,9 +729,6 @@
   </si>
   <si>
     <t>Sh/kg</t>
-  </si>
-  <si>
-    <t>numbeo</t>
   </si>
   <si>
     <t>Initial use of fruit of HR (HP)</t>
@@ -846,7 +844,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0;\-;\-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
@@ -1510,7 +1508,7 @@
       </c>
       <c r="E2" s="1">
         <f>main!C35</f>
-        <v>-4.9350649350647327E-2</v>
+        <v>-4.9350649350649249E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1569,7 +1567,7 @@
       </c>
       <c r="C2" s="38">
         <f>main!C29</f>
-        <v>0.99999999999995925</v>
+        <v>0.999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1652,7 +1650,7 @@
       </c>
       <c r="G2" s="38">
         <f>-main!C30</f>
-        <v>2.9422988710692263E-6</v>
+        <v>2.9422988710693398E-6</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>15</v>
@@ -1679,7 +1677,7 @@
       </c>
       <c r="G3" s="42">
         <f>main!C34</f>
-        <v>-1.8370198485471512E-3</v>
+        <v>-8.2962186708584218E-5</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>15</v>
@@ -1758,7 +1756,7 @@
       </c>
       <c r="F2" s="42">
         <f>main!C32</f>
-        <v>-3.3158843793851883E-6</v>
+        <v>-3.3158843793853166E-6</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>19</v>
@@ -1782,7 +1780,7 @@
       </c>
       <c r="F3" s="42">
         <f>main!C33</f>
-        <v>4.6668002376532274E-6</v>
+        <v>4.6668002376534078E-6</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>15</v>
@@ -2540,11 +2538,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2766,8 +2764,7 @@
         <v>229</v>
       </c>
       <c r="C9" s="36">
-        <f>162-7</f>
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>230</v>
@@ -2779,20 +2776,20 @@
       <c r="I9" s="36"/>
       <c r="J9" s="7"/>
       <c r="K9" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="49"/>
       <c r="B10" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="36">
         <v>10410</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="7"/>
@@ -2800,14 +2797,14 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
       <c r="B11" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="36">
         <v>1.4</v>
@@ -2824,7 +2821,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
       <c r="B12" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="36">
         <v>1.4</v>
@@ -2841,7 +2838,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C13" s="15">
         <v>800000</v>
@@ -2854,13 +2851,13 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
       <c r="B14" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" s="15">
         <v>8.3479305095333606E-2</v>
@@ -2877,7 +2874,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="46"/>
       <c r="B15" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="15">
         <v>-0.08</v>
@@ -2896,7 +2893,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
       <c r="B16" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16" s="15">
         <v>-0.02</v>
@@ -2913,7 +2910,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="15">
         <v>3.8</v>
@@ -2926,18 +2923,18 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="C18" s="44">
-        <v>1.471149435534613E-4</v>
+        <v>1.47114943553467E-4</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="32"/>
@@ -2951,7 +2948,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="49"/>
       <c r="B19" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C19" s="14">
         <v>1.4E-2</v>
@@ -2963,7 +2960,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>224</v>
@@ -2972,7 +2969,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="49"/>
       <c r="B20" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="14">
         <f>1-C11</f>
@@ -2988,13 +2985,13 @@
         <v>227</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="49"/>
       <c r="B21" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="14">
         <f>1-C12</f>
@@ -3010,13 +3007,13 @@
         <v>227</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="14">
         <v>-0.4</v>
@@ -3032,17 +3029,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="C23" s="17">
         <f>C5*C6*C3*(C7+C19)/1000</f>
         <v>6797.4060000000009</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="11"/>
@@ -3055,14 +3052,14 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="10">
         <f>C9*C8*C6*C5*C3/1000000</f>
-        <v>129989.355</v>
+        <v>5870.4870000000001</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="10"/>
@@ -3070,18 +3067,18 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="16">
         <f>C16*C18</f>
-        <v>-2.9422988710692263E-6</v>
+        <v>-2.9422988710693398E-6</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="34"/>
@@ -3093,17 +3090,17 @@
         <v>227</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="20">
         <f>C14*C20*C18</f>
-        <v>-4.9124213027928696E-6</v>
+        <v>-4.9124213027930602E-6</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="34"/>
@@ -3119,11 +3116,11 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="49"/>
       <c r="B27" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="20">
         <f>C21*C14*C18</f>
-        <v>-4.9124213027928696E-6</v>
+        <v>-4.9124213027930602E-6</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="34"/>
@@ -3139,11 +3136,11 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
       <c r="B28" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="20">
         <f>C22*C14*C18</f>
-        <v>-4.9124213027928721E-6</v>
+        <v>-4.9124213027930619E-6</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="34"/>
@@ -3156,17 +3153,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>260</v>
       </c>
       <c r="C29" s="23">
         <f>C23*C18</f>
-        <v>0.99999999999995925</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="25"/>
@@ -3181,11 +3178,11 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="24">
         <f>C25</f>
-        <v>-2.9422988710692263E-6</v>
+        <v>-2.9422988710693398E-6</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="35"/>
@@ -3197,13 +3194,13 @@
         <v>227</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" s="35">
         <v>0</v>
@@ -3218,17 +3215,17 @@
         <v>227</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
       <c r="B32" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" s="25">
         <f>-0.27*C14*C18</f>
-        <v>-3.3158843793851883E-6</v>
+        <v>-3.3158843793853166E-6</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="35"/>
@@ -3240,16 +3237,16 @@
         <v>21</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C33" s="35">
         <f>0.38*C14*C18</f>
-        <v>4.6668002376532274E-6</v>
+        <v>4.6668002376534078E-6</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="35"/>
@@ -3261,16 +3258,16 @@
         <v>21</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C34" s="35">
         <f>-C24*C18/C10</f>
-        <v>-1.8370198485471512E-3</v>
+        <v>-8.2962186708584218E-5</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="35"/>
@@ -3287,11 +3284,11 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="35">
         <f>-C17*C18*C5/1000</f>
-        <v>-4.9350649350647327E-2</v>
+        <v>-4.9350649350649249E-2</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="35"/>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3317,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="K9" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
